--- a/tournament/matches/Rajastan_Australia_vs_Sunrisers_SriLanka.xlsx
+++ b/tournament/matches/Rajastan_Australia_vs_Sunrisers_SriLanka.xlsx
@@ -523,23 +523,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>David Warner</t>
+          <t>Dinesh Chandimal</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nuwan Pradeep</t>
+          <t xml:space="preserve"> Josh Hazlewood</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Dinesh Chandimal</t>
+          <t>David Warner</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -558,12 +558,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Josh Hazlewood</t>
+          <t xml:space="preserve"> Nuwan Pradeep</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,23 +573,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aaron Finch(C)</t>
+          <t>Pathum Nissanka</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chamika Karunarathne</t>
+          <t xml:space="preserve"> Adam Zampa</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,23 +597,23 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Pathum Nissanka</t>
+          <t>Aaron Finch(C)</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Zampa</t>
+          <t xml:space="preserve"> Nuwan Pradeep</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,23 +623,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mitchell Marsh</t>
+          <t>Charith Asalanka</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chamika Karunarathne</t>
+          <t xml:space="preserve"> Mitchell Starc</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Charith Asalanka</t>
+          <t>Mitchell Marsh</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Zampa</t>
+          <t xml:space="preserve"> Wanindu Hasaranga</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,14 +673,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Steve Smith</t>
+          <t>Dhananjaya de Silva</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maheesh Theekshana</t>
+          <t xml:space="preserve"> Adam Zampa</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,23 +697,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Dhananjaya de Silva</t>
+          <t>Steve Smith</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Starc</t>
+          <t xml:space="preserve"> Dushmantha Chameera</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Glenn Maxwell</t>
+          <t>Bhanuka Rajapakse</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maheesh Theekshana</t>
+          <t xml:space="preserve"> Josh Hazlewood</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,23 +747,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Bhanuka Rajapakse</t>
+          <t>Glenn Maxwell</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Josh Hazlewood</t>
+          <t xml:space="preserve"> Dushmantha Chameera</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,14 +773,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Matthew Wade</t>
+          <t>Dasun Shanka(C)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dushmantha Chameera</t>
+          <t xml:space="preserve"> Adam Zampa</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,23 +797,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dasun Shanka(C)</t>
+          <t>Matthew Wade</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marcus Stionis</t>
+          <t xml:space="preserve"> Nuwan Pradeep</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,14 +823,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marcus Stionis</t>
+          <t>Wanindu Hasaranga</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wanindu Hasaranga</t>
+          <t xml:space="preserve"> Marcus Stionis</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,23 +847,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Wanindu Hasaranga</t>
+          <t>Marcus Stionis</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Josh Hazlewood</t>
+          <t xml:space="preserve"> Wanindu Hasaranga</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,23 +873,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pat Cummins</t>
+          <t>Chamika Karunarathne</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wanindu Hasaranga</t>
+          <t xml:space="preserve"> Marcus Stionis</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,23 +897,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chamika Karunarathne</t>
+          <t>Pat Cummins</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Zampa</t>
+          <t xml:space="preserve"> Nuwan Pradeep</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -923,23 +923,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mitchell Starc</t>
+          <t>Dushmantha Chameera</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Josh Hazlewood</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,23 +947,23 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Dushmantha Chameera</t>
+          <t>Mitchell Starc</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Starc</t>
+          <t xml:space="preserve"> Wanindu Hasaranga</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -973,23 +973,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adam Zampa</t>
+          <t>Maheesh Theekshana</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maheesh Theekshana</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -997,23 +997,23 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Maheesh Theekshana</t>
+          <t>Adam Zampa</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="L11" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Josh Hazlewood</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1023,14 +1023,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Nuwan Pradeep</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maheesh Theekshana</t>
+          <t xml:space="preserve"> Marcus Stionis</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,23 +1047,23 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Nuwan Pradeep</t>
+          <t>Josh Hazlewood</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Chamika Karunarathne</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J16" t="n">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -1197,127 +1197,127 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dushmantha Chameera</t>
+          <t>Josh Hazlewood</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Wanindu Hasaranga</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>37</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Adam Zampa</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="L21" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chamika Karunarathne</t>
+          <t>Adam Zampa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>16.5</v>
+        <v>13.67</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mitchell Starc</t>
+          <t>Nuwan Pradeep</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wanindu Hasaranga</t>
+          <t>Mitchell Starc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>15.67</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Pat Cummins</t>
+          <t>Maheesh Theekshana</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nuwan Pradeep</t>
+          <t>Pat Cummins</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1326,72 +1326,72 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Marcus Stionis</t>
+          <t>Dushmantha Chameera</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maheesh Theekshana</t>
+          <t>Marcus Stionis</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Chamika Karunarathne</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>44</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Josh Hazlewood</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="L25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>11.33</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Rajastan_Australia_vs_Sunrisers_SriLanka.xlsx
+++ b/tournament/matches/Rajastan_Australia_vs_Sunrisers_SriLanka.xlsx
@@ -184,6 +184,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -480,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,19 +560,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maheesh Theekshana</t>
+          <t xml:space="preserve"> Nuwan Pradeep</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -581,19 +584,19 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Josh Hazlewood</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -607,19 +610,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nuwan Pradeep</t>
+          <t xml:space="preserve"> Maheesh Theekshana</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -631,19 +634,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Starc</t>
+          <t xml:space="preserve"> Josh Hazlewood</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -657,19 +660,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wanindu Hasaranga</t>
+          <t xml:space="preserve"> Nuwan Pradeep</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -681,19 +684,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Zampa</t>
+          <t xml:space="preserve"> Josh Hazlewood</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -707,10 +710,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -719,7 +722,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dushmantha Chameera</t>
+          <t xml:space="preserve"> Wanindu Hasaranga</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -731,10 +734,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -757,10 +760,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -769,7 +772,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dushmantha Chameera</t>
+          <t xml:space="preserve"> Nuwan Pradeep</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -781,19 +784,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Zampa</t>
+          <t xml:space="preserve"> Pat Cummins</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -807,10 +810,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -819,7 +822,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dushmantha Chameera</t>
+          <t xml:space="preserve"> Maheesh Theekshana</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -831,10 +834,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -843,7 +846,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Zampa</t>
+          <t xml:space="preserve"> Marcus Stionis</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -857,7 +860,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -881,19 +884,19 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pat Cummins</t>
+          <t xml:space="preserve"> Josh Hazlewood</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -907,19 +910,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nuwan Pradeep</t>
+          <t xml:space="preserve"> Wanindu Hasaranga</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -931,19 +934,19 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Zampa</t>
+          <t xml:space="preserve"> Josh Hazlewood</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -957,19 +960,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wanindu Hasaranga</t>
+          <t xml:space="preserve"> Dushmantha Chameera</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -981,19 +984,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marcus Stionis</t>
+          <t xml:space="preserve"> Mitchell Starc</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1007,19 +1010,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wanindu Hasaranga</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,19 +1034,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Josh Hazlewood</t>
+          <t xml:space="preserve"> Pat Cummins</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1057,19 +1060,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Dushmantha Chameera</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1081,14 +1084,14 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1144,32 +1147,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J16" t="n">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -1227,7 +1230,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Maheesh Theekshana</t>
+          <t>Chamika Karunarathne</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1236,38 +1239,38 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mitchell Starc</t>
+          <t>Marcus Stionis</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dushmantha Chameera</t>
+          <t>Wanindu Hasaranga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1276,152 +1279,166 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Pat Cummins</t>
+          <t>Josh Hazlewood</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>16</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chamika Karunarathne</t>
+          <t>Nuwan Pradeep</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>13.67</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Marcus Stionis</t>
+          <t>Adam Zampa</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>14</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Wanindu Hasaranga</t>
+          <t>Maheesh Theekshana</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Mitchell Starc</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>13.5</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nuwan Pradeep</t>
+          <t>Dushmantha Chameera</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>18.33</v>
+        <v>15</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Adam Zampa</t>
+          <t>Pat Cummins</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>12.5</v>
+        <v>17.83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Rajastan Australia Won the toss and chose to bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sunrisers SriLanka Won by 1 wickets</t>
+        </is>
       </c>
     </row>
   </sheetData>
